--- a/팀원자료/사이트맵/클라이언트_영화_사이트맵_이준성.xlsx
+++ b/팀원자료/사이트맵/클라이언트_영화_사이트맵_이준성.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25803"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김갈매\Desktop\파이널 문서\팀원자료\사이트맵\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360B772-FBB4-4826-BCC7-BCE11D128EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12760101-B46E-43C4-AB0C-BC28B1D8A82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>1안</t>
+  </si>
   <si>
     <t>2안</t>
   </si>
@@ -54,19 +52,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -153,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,41 +443,49 @@
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>